--- a/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,249 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>136</v>
       </c>
     </row>
@@ -477,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,9 +731,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>280</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,22 +682,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B31" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -709,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,14 +793,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>280</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -709,7 +710,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -791,6 +792,565 @@
       </c>
       <c r="B11" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-122.5084982029286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>165.7560667117011</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-104.1014997462942</v>
+      </c>
+      <c r="D3" t="n">
+        <v>164.6150147550311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-108.9584949473099</v>
+      </c>
+      <c r="D4" t="n">
+        <v>170.0206894828112</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-98.60091570531453</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.8893984322968</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-103.5924026859547</v>
+      </c>
+      <c r="D6" t="n">
+        <v>179.3124703629334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-108.278176973358</v>
+      </c>
+      <c r="D7" t="n">
+        <v>173.0480418608986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-106.7896833745972</v>
+      </c>
+      <c r="D8" t="n">
+        <v>176.4614542357628</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>51</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-95.53162470867485</v>
+      </c>
+      <c r="D9" t="n">
+        <v>184.0516877825017</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-79.143932840007</v>
+      </c>
+      <c r="D10" t="n">
+        <v>196.2043812206884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>64</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-83.23082091882304</v>
+      </c>
+      <c r="D11" t="n">
+        <v>197.9316033748386</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>67</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-68.58291814396028</v>
+      </c>
+      <c r="D12" t="n">
+        <v>199.2769841776806</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-68.3468655568671</v>
+      </c>
+      <c r="D13" t="n">
+        <v>219.9048900360181</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-65.30615139710221</v>
+      </c>
+      <c r="D14" t="n">
+        <v>219.9919521727081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>85</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-56.69021444719328</v>
+      </c>
+      <c r="D15" t="n">
+        <v>222.1836427781349</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>88</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-55.58448381039601</v>
+      </c>
+      <c r="D16" t="n">
+        <v>234.9345176061575</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>91</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-61.19064811898711</v>
+      </c>
+      <c r="D17" t="n">
+        <v>231.2453721976895</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>104</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-45.07403408440374</v>
+      </c>
+      <c r="D18" t="n">
+        <v>253.0406550463245</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>107</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-32.36675954738506</v>
+      </c>
+      <c r="D19" t="n">
+        <v>242.8114297946497</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>110</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-25.35063189042251</v>
+      </c>
+      <c r="D20" t="n">
+        <v>250.8975924458807</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>113</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-23.37044566613846</v>
+      </c>
+      <c r="D21" t="n">
+        <v>253.3829497739792</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>116</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-17.26119893426268</v>
+      </c>
+      <c r="D22" t="n">
+        <v>247.0524964879277</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>119</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-25.8075034265508</v>
+      </c>
+      <c r="D23" t="n">
+        <v>251.9605912051957</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.25968297814287</v>
+      </c>
+      <c r="D24" t="n">
+        <v>264.7635244934343</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>128</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.780005816248842</v>
+      </c>
+      <c r="D25" t="n">
+        <v>275.5963393329988</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>131</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-11.11150688877862</v>
+      </c>
+      <c r="D26" t="n">
+        <v>271.5341334867132</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>134</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-11.37290100411912</v>
+      </c>
+      <c r="D27" t="n">
+        <v>275.1033219965252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>137</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.751723508339137</v>
+      </c>
+      <c r="D28" t="n">
+        <v>276.5316177119988</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>140</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.711528085765783</v>
+      </c>
+      <c r="D29" t="n">
+        <v>270.002557991372</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>144</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.30921628001587</v>
+      </c>
+      <c r="D30" t="n">
+        <v>280.6416854141876</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>147</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2047854813700731</v>
+      </c>
+      <c r="D31" t="n">
+        <v>295.6758390538133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>150</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.576975918302468</v>
+      </c>
+      <c r="D32" t="n">
+        <v>293.7236925213876</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>153</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.787236691105715</v>
+      </c>
+      <c r="D33" t="n">
+        <v>296.1190686853122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>156</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.213491491147797</v>
+      </c>
+      <c r="D34" t="n">
+        <v>296.370373192424</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>159</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15.27222542123963</v>
+      </c>
+      <c r="D35" t="n">
+        <v>297.3173597436865</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>162</v>
+      </c>
+      <c r="C36" t="n">
+        <v>24.23588853259301</v>
+      </c>
+      <c r="D36" t="n">
+        <v>297.5581836173918</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>165</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24.0301702489393</v>
+      </c>
+      <c r="D37" t="n">
+        <v>315.4760995047154</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>168</v>
+      </c>
+      <c r="C38" t="n">
+        <v>41.74235454205605</v>
+      </c>
+      <c r="D38" t="n">
+        <v>310.3277627941716</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7T5P4_po_data.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +824,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -842,12 +832,6 @@
       <c r="B2" t="n">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>-122.5084982029286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>165.7560667117011</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -856,12 +840,6 @@
       <c r="B3" t="n">
         <v>27</v>
       </c>
-      <c r="C3" t="n">
-        <v>-104.1014997462942</v>
-      </c>
-      <c r="D3" t="n">
-        <v>164.6150147550311</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -870,12 +848,6 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
-        <v>-108.9584949473099</v>
-      </c>
-      <c r="D4" t="n">
-        <v>170.0206894828112</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -884,12 +856,6 @@
       <c r="B5" t="n">
         <v>33</v>
       </c>
-      <c r="C5" t="n">
-        <v>-98.60091570531453</v>
-      </c>
-      <c r="D5" t="n">
-        <v>178.8893984322968</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,12 +864,6 @@
       <c r="B6" t="n">
         <v>36</v>
       </c>
-      <c r="C6" t="n">
-        <v>-103.5924026859547</v>
-      </c>
-      <c r="D6" t="n">
-        <v>179.3124703629334</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -912,12 +872,6 @@
       <c r="B7" t="n">
         <v>39</v>
       </c>
-      <c r="C7" t="n">
-        <v>-108.278176973358</v>
-      </c>
-      <c r="D7" t="n">
-        <v>173.0480418608986</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -926,12 +880,6 @@
       <c r="B8" t="n">
         <v>42</v>
       </c>
-      <c r="C8" t="n">
-        <v>-106.7896833745972</v>
-      </c>
-      <c r="D8" t="n">
-        <v>176.4614542357628</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -940,12 +888,6 @@
       <c r="B9" t="n">
         <v>51</v>
       </c>
-      <c r="C9" t="n">
-        <v>-95.53162470867485</v>
-      </c>
-      <c r="D9" t="n">
-        <v>184.0516877825017</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -954,12 +896,6 @@
       <c r="B10" t="n">
         <v>61</v>
       </c>
-      <c r="C10" t="n">
-        <v>-79.143932840007</v>
-      </c>
-      <c r="D10" t="n">
-        <v>196.2043812206884</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -968,12 +904,6 @@
       <c r="B11" t="n">
         <v>64</v>
       </c>
-      <c r="C11" t="n">
-        <v>-83.23082091882304</v>
-      </c>
-      <c r="D11" t="n">
-        <v>197.9316033748386</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -982,12 +912,6 @@
       <c r="B12" t="n">
         <v>67</v>
       </c>
-      <c r="C12" t="n">
-        <v>-68.58291814396028</v>
-      </c>
-      <c r="D12" t="n">
-        <v>199.2769841776806</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -996,12 +920,6 @@
       <c r="B13" t="n">
         <v>73</v>
       </c>
-      <c r="C13" t="n">
-        <v>-68.3468655568671</v>
-      </c>
-      <c r="D13" t="n">
-        <v>219.9048900360181</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1010,12 +928,6 @@
       <c r="B14" t="n">
         <v>79</v>
       </c>
-      <c r="C14" t="n">
-        <v>-65.30615139710221</v>
-      </c>
-      <c r="D14" t="n">
-        <v>219.9919521727081</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1024,12 +936,6 @@
       <c r="B15" t="n">
         <v>85</v>
       </c>
-      <c r="C15" t="n">
-        <v>-56.69021444719328</v>
-      </c>
-      <c r="D15" t="n">
-        <v>222.1836427781349</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1038,12 +944,6 @@
       <c r="B16" t="n">
         <v>88</v>
       </c>
-      <c r="C16" t="n">
-        <v>-55.58448381039601</v>
-      </c>
-      <c r="D16" t="n">
-        <v>234.9345176061575</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1052,12 +952,6 @@
       <c r="B17" t="n">
         <v>91</v>
       </c>
-      <c r="C17" t="n">
-        <v>-61.19064811898711</v>
-      </c>
-      <c r="D17" t="n">
-        <v>231.2453721976895</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1066,12 +960,6 @@
       <c r="B18" t="n">
         <v>104</v>
       </c>
-      <c r="C18" t="n">
-        <v>-45.07403408440374</v>
-      </c>
-      <c r="D18" t="n">
-        <v>253.0406550463245</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1080,12 +968,6 @@
       <c r="B19" t="n">
         <v>107</v>
       </c>
-      <c r="C19" t="n">
-        <v>-32.36675954738506</v>
-      </c>
-      <c r="D19" t="n">
-        <v>242.8114297946497</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1094,12 +976,6 @@
       <c r="B20" t="n">
         <v>110</v>
       </c>
-      <c r="C20" t="n">
-        <v>-25.35063189042251</v>
-      </c>
-      <c r="D20" t="n">
-        <v>250.8975924458807</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1108,12 +984,6 @@
       <c r="B21" t="n">
         <v>113</v>
       </c>
-      <c r="C21" t="n">
-        <v>-23.37044566613846</v>
-      </c>
-      <c r="D21" t="n">
-        <v>253.3829497739792</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1122,12 +992,6 @@
       <c r="B22" t="n">
         <v>116</v>
       </c>
-      <c r="C22" t="n">
-        <v>-17.26119893426268</v>
-      </c>
-      <c r="D22" t="n">
-        <v>247.0524964879277</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1136,12 +1000,6 @@
       <c r="B23" t="n">
         <v>119</v>
       </c>
-      <c r="C23" t="n">
-        <v>-25.8075034265508</v>
-      </c>
-      <c r="D23" t="n">
-        <v>251.9605912051957</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1150,12 +1008,6 @@
       <c r="B24" t="n">
         <v>125</v>
       </c>
-      <c r="C24" t="n">
-        <v>-14.25968297814287</v>
-      </c>
-      <c r="D24" t="n">
-        <v>264.7635244934343</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1164,12 +1016,6 @@
       <c r="B25" t="n">
         <v>128</v>
       </c>
-      <c r="C25" t="n">
-        <v>-7.780005816248842</v>
-      </c>
-      <c r="D25" t="n">
-        <v>275.5963393329988</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1178,12 +1024,6 @@
       <c r="B26" t="n">
         <v>131</v>
       </c>
-      <c r="C26" t="n">
-        <v>-11.11150688877862</v>
-      </c>
-      <c r="D26" t="n">
-        <v>271.5341334867132</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1192,12 +1032,6 @@
       <c r="B27" t="n">
         <v>134</v>
       </c>
-      <c r="C27" t="n">
-        <v>-11.37290100411912</v>
-      </c>
-      <c r="D27" t="n">
-        <v>275.1033219965252</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1206,12 +1040,6 @@
       <c r="B28" t="n">
         <v>137</v>
       </c>
-      <c r="C28" t="n">
-        <v>-5.751723508339137</v>
-      </c>
-      <c r="D28" t="n">
-        <v>276.5316177119988</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1220,12 +1048,6 @@
       <c r="B29" t="n">
         <v>140</v>
       </c>
-      <c r="C29" t="n">
-        <v>-5.711528085765783</v>
-      </c>
-      <c r="D29" t="n">
-        <v>270.002557991372</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1234,12 +1056,6 @@
       <c r="B30" t="n">
         <v>144</v>
       </c>
-      <c r="C30" t="n">
-        <v>-12.30921628001587</v>
-      </c>
-      <c r="D30" t="n">
-        <v>280.6416854141876</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1248,12 +1064,6 @@
       <c r="B31" t="n">
         <v>147</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.2047854813700731</v>
-      </c>
-      <c r="D31" t="n">
-        <v>295.6758390538133</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1262,12 +1072,6 @@
       <c r="B32" t="n">
         <v>150</v>
       </c>
-      <c r="C32" t="n">
-        <v>9.576975918302468</v>
-      </c>
-      <c r="D32" t="n">
-        <v>293.7236925213876</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1276,12 +1080,6 @@
       <c r="B33" t="n">
         <v>153</v>
       </c>
-      <c r="C33" t="n">
-        <v>5.787236691105715</v>
-      </c>
-      <c r="D33" t="n">
-        <v>296.1190686853122</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1290,12 +1088,6 @@
       <c r="B34" t="n">
         <v>156</v>
       </c>
-      <c r="C34" t="n">
-        <v>-1.213491491147797</v>
-      </c>
-      <c r="D34" t="n">
-        <v>296.370373192424</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1304,12 +1096,6 @@
       <c r="B35" t="n">
         <v>159</v>
       </c>
-      <c r="C35" t="n">
-        <v>15.27222542123963</v>
-      </c>
-      <c r="D35" t="n">
-        <v>297.3173597436865</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1318,12 +1104,6 @@
       <c r="B36" t="n">
         <v>162</v>
       </c>
-      <c r="C36" t="n">
-        <v>24.23588853259301</v>
-      </c>
-      <c r="D36" t="n">
-        <v>297.5581836173918</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1332,12 +1112,6 @@
       <c r="B37" t="n">
         <v>165</v>
       </c>
-      <c r="C37" t="n">
-        <v>24.0301702489393</v>
-      </c>
-      <c r="D37" t="n">
-        <v>315.4760995047154</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1345,12 +1119,6 @@
       </c>
       <c r="B38" t="n">
         <v>168</v>
-      </c>
-      <c r="C38" t="n">
-        <v>41.74235454205605</v>
-      </c>
-      <c r="D38" t="n">
-        <v>310.3277627941716</v>
       </c>
     </row>
   </sheetData>
